--- a/source/for_translation.xlsx
+++ b/source/for_translation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>English</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>come on 3333333</t>
+  </si>
+  <si>
+    <t>come on 444444</t>
+  </si>
+  <si>
+    <t>come on 5555555</t>
   </si>
 </sst>
 </file>
@@ -114,7 +120,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -144,12 +150,20 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>

--- a/source/for_translation.xlsx
+++ b/source/for_translation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>English</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>come on 5555555</t>
+  </si>
+  <si>
+    <t>come on 6666666</t>
+  </si>
+  <si>
+    <t>come on 7777777</t>
+  </si>
+  <si>
+    <t>μεταφραση 7</t>
   </si>
 </sst>
 </file>
@@ -155,17 +164,28 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>

--- a/source/for_translation.xlsx
+++ b/source/for_translation.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>English</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>μεταφραση 7</t>
+  </si>
+  <si>
+    <t>come on 888</t>
   </si>
 </sst>
 </file>
@@ -101,11 +104,11 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -174,19 +177,23 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1"/>
